--- a/leetcode/statistics.xlsx
+++ b/leetcode/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\computer-science\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3999169E-9458-467E-A9CA-99950D4CB290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180138EE-3559-4154-A733-478580EDACAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Material</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>HashTable</t>
   </si>
 </sst>
 </file>
@@ -75,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,10 +378,11 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,10 +393,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43755</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/statistics.xlsx
+++ b/leetcode/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\computer-science\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180138EE-3559-4154-A733-478580EDACAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438BC800-FE23-4B67-8B41-750214BAD389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>HashTable</t>
+  </si>
+  <si>
+    <t>Math</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,6 +419,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43755</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode/statistics.xlsx
+++ b/leetcode/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\computer-science\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438BC800-FE23-4B67-8B41-750214BAD389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A69FA70-23E9-46BB-B333-9F96A179BFC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,6 +433,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43755</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
